--- a/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1A5456-3170-4CFA-B559-F4302E3C0190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="412">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1276,7 +1275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1990,7 +1989,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2032,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2096,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2156,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2222,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2285,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2383,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2442,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2507,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2550,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2625,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2811,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2877,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2935,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3001,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3057,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3132,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3175,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3241,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3298,7 +3297,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,7 +3376,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3394,26 +3393,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K674" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K674" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K675" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K675"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3720,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3730,7 +3729,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3738,34 +3737,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K674"/>
+  <dimension ref="A2:K675"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A579" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A579" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B577" sqref="B577:B578"/>
+      <selection pane="bottomLeft" activeCell="E593" sqref="E593"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3788,7 +3787,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3808,7 +3807,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3830,7 +3829,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3838,7 +3837,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3851,7 +3850,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3868,7 +3867,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3912,7 +3911,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.9960000000000377</v>
+        <v>8.2460000000000377</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3922,12 +3921,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.824999999999989</v>
+        <v>46.074999999999989</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>68</v>
       </c>
@@ -3945,7 +3944,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36357</v>
       </c>
@@ -3965,7 +3964,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -3985,7 +3984,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>36404</v>
@@ -4006,7 +4005,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A16" si="0">EDATE(A13,1)</f>
         <v>36434</v>
@@ -4027,7 +4026,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -4052,7 +4051,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -4073,7 +4072,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>70</v>
       </c>
@@ -4091,7 +4090,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f>EDATE(A16,1)</f>
         <v>36526</v>
@@ -4112,7 +4111,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A18,1)</f>
         <v>36557</v>
@@ -4139,7 +4138,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4161,7 +4160,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>71</v>
@@ -4181,7 +4180,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>EDATE(A19,1)</f>
         <v>36586</v>
@@ -4208,7 +4207,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -4228,7 +4227,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>36617</v>
@@ -4255,7 +4254,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>72</v>
@@ -4275,7 +4274,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36647</v>
@@ -4302,7 +4301,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -4324,7 +4323,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>73</v>
@@ -4344,7 +4343,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f>EDATE(A26,1)</f>
         <v>36678</v>
@@ -4369,7 +4368,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>74</v>
@@ -4389,7 +4388,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f>EDATE(A29,1)</f>
         <v>36708</v>
@@ -4414,7 +4413,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" ref="A32" si="1">EDATE(A31,1)</f>
         <v>36739</v>
@@ -4439,7 +4438,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>61</v>
@@ -4461,7 +4460,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f>EDATE(A32,1)</f>
         <v>36770</v>
@@ -4488,7 +4487,7 @@
         <v>47386</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -4508,7 +4507,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -4528,7 +4527,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36800</v>
@@ -4555,7 +4554,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -4577,7 +4576,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4597,7 +4596,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f>EDATE(A37,1)</f>
         <v>36831</v>
@@ -4622,7 +4621,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f>EDATE(A40,1)</f>
         <v>36861</v>
@@ -4647,7 +4646,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>78</v>
       </c>
@@ -4665,7 +4664,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>36892</v>
@@ -4690,7 +4689,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f>EDATE(A43,1)</f>
         <v>36923</v>
@@ -4711,7 +4710,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" ref="A45:A54" si="2">EDATE(A44,1)</f>
         <v>36951</v>
@@ -4738,7 +4737,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -4760,7 +4759,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>79</v>
@@ -4782,7 +4781,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EDATE(A45,1)</f>
         <v>36982</v>
@@ -4803,7 +4802,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4828,7 +4827,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4849,7 +4848,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4870,7 +4869,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4897,7 +4896,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4918,7 +4917,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -4945,7 +4944,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>50</v>
@@ -4967,7 +4966,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>37196</v>
@@ -4988,7 +4987,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f>EDATE(A56,1)</f>
         <v>37226</v>
@@ -5013,7 +5012,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>81</v>
       </c>
@@ -5031,7 +5030,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>37257</v>
@@ -5058,7 +5057,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -5080,7 +5079,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f>EDATE(A59,1)</f>
         <v>37288</v>
@@ -5107,7 +5106,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" ref="A62:A75" si="3">EDATE(A61,1)</f>
         <v>37316</v>
@@ -5128,7 +5127,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -5155,7 +5154,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>55</v>
@@ -5177,7 +5176,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>61</v>
@@ -5199,7 +5198,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f>EDATE(A63,1)</f>
         <v>37377</v>
@@ -5226,7 +5225,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="3"/>
         <v>37408</v>
@@ -5247,7 +5246,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -5274,7 +5273,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>61</v>
@@ -5296,7 +5295,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>37469</v>
@@ -5323,7 +5322,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>61</v>
@@ -5345,7 +5344,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37500</v>
@@ -5372,7 +5371,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5393,7 +5392,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A73,1)</f>
         <v>37561</v>
@@ -5420,7 +5419,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -5441,7 +5440,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>83</v>
       </c>
@@ -5459,7 +5458,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A75,1)</f>
         <v>37622</v>
@@ -5486,7 +5485,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f>EDATE(A77,1)</f>
         <v>37653</v>
@@ -5513,7 +5512,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" ref="A79:A88" si="4">EDATE(A78,1)</f>
         <v>37681</v>
@@ -5540,7 +5539,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="4"/>
         <v>37712</v>
@@ -5567,7 +5566,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -5592,7 +5591,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -5613,7 +5612,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -5634,7 +5633,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -5655,7 +5654,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="4"/>
         <v>37865</v>
@@ -5676,7 +5675,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5701,7 +5700,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5722,7 +5721,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5749,7 +5748,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>88</v>
       </c>
@@ -5767,7 +5766,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>37987</v>
@@ -5788,7 +5787,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A90,1)</f>
         <v>38018</v>
@@ -5809,7 +5808,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" ref="A92:A102" si="5">EDATE(A91,1)</f>
         <v>38047</v>
@@ -5836,7 +5835,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -5861,7 +5860,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -5886,7 +5885,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="5"/>
         <v>38139</v>
@@ -5911,7 +5910,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f>EDATE(A95,1)</f>
         <v>38169</v>
@@ -5938,7 +5937,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>92</v>
@@ -5958,7 +5957,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>47</v>
@@ -5978,7 +5977,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f>EDATE(A96,1)</f>
         <v>38200</v>
@@ -6005,7 +6004,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>73</v>
@@ -6025,7 +6024,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f>EDATE(A99,1)</f>
         <v>38231</v>
@@ -6050,7 +6049,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="5"/>
         <v>38261</v>
@@ -6077,7 +6076,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>50</v>
@@ -6099,7 +6098,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>94</v>
@@ -6119,7 +6118,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>38292</v>
@@ -6146,7 +6145,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>95</v>
@@ -6166,7 +6165,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f>EDATE(A105,1)</f>
         <v>38322</v>
@@ -6193,7 +6192,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6215,7 +6214,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>96</v>
@@ -6235,7 +6234,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>97</v>
       </c>
@@ -6253,7 +6252,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f>EDATE(A107,1)</f>
         <v>38353</v>
@@ -6280,7 +6279,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>98</v>
@@ -6300,7 +6299,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A111,1)</f>
         <v>38384</v>
@@ -6327,7 +6326,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6347,7 +6346,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>38412</v>
@@ -6374,7 +6373,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>100</v>
@@ -6394,7 +6393,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>38443</v>
@@ -6421,7 +6420,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>101</v>
@@ -6445,7 +6444,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>102</v>
@@ -6465,7 +6464,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>38473</v>
@@ -6494,7 +6493,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6516,7 +6515,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>104</v>
@@ -6536,7 +6535,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A120,1)</f>
         <v>38504</v>
@@ -6563,7 +6562,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" ref="A124:A131" si="6">EDATE(A123,1)</f>
         <v>38534</v>
@@ -6590,7 +6589,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>47</v>
@@ -6610,7 +6609,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>106</v>
@@ -6632,7 +6631,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>107</v>
@@ -6654,7 +6653,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A124,1)</f>
         <v>38565</v>
@@ -6675,7 +6674,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6702,7 +6701,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="6"/>
         <v>38626</v>
@@ -6723,7 +6722,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="6"/>
         <v>38657</v>
@@ -6744,7 +6743,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f>EDATE(A131,1)</f>
         <v>38687</v>
@@ -6765,7 +6764,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>109</v>
       </c>
@@ -6783,7 +6782,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EDATE(A132,1)</f>
         <v>38718</v>
@@ -6804,7 +6803,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A134,1)</f>
         <v>38749</v>
@@ -6825,7 +6824,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" ref="A136:A145" si="7">EDATE(A135,1)</f>
         <v>38777</v>
@@ -6850,7 +6849,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -6871,7 +6870,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -6898,7 +6897,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -6919,7 +6918,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -6940,7 +6939,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -6965,7 +6964,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -6992,7 +6991,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -7013,7 +7012,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -7034,7 +7033,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -7059,7 +7058,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>110</v>
       </c>
@@ -7077,7 +7076,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="50" t="s">
         <v>111</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>39209</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>55</v>
@@ -7147,7 +7146,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>56</v>
@@ -7169,7 +7168,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>55</v>
@@ -7191,7 +7190,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>113</v>
@@ -7211,7 +7210,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A148,1)</f>
         <v>39240</v>
@@ -7236,7 +7235,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>50</v>
@@ -7258,7 +7257,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>39270</v>
@@ -7283,7 +7282,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>47</v>
@@ -7303,7 +7302,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>47</v>
@@ -7323,7 +7322,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>39301</v>
@@ -7348,7 +7347,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>39332</v>
@@ -7375,7 +7374,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>117</v>
@@ -7395,7 +7394,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="51"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>55</v>
@@ -7417,7 +7416,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>39362</v>
@@ -7444,7 +7443,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>118</v>
@@ -7464,7 +7463,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="51"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>39393</v>
@@ -7491,7 +7490,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>119</v>
@@ -7511,7 +7510,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="51"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" ref="A166" si="8">EDATE(A164,1)</f>
         <v>39423</v>
@@ -7538,7 +7537,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>55</v>
@@ -7560,7 +7559,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>121</v>
@@ -7580,7 +7579,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="47" t="s">
         <v>122</v>
       </c>
@@ -7598,7 +7597,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f>EDATE(A166,1)</f>
         <v>39454</v>
@@ -7625,7 +7624,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -7645,7 +7644,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>55</v>
@@ -7667,7 +7666,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>55</v>
@@ -7689,7 +7688,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>55</v>
@@ -7711,7 +7710,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A170,1)</f>
         <v>39485</v>
@@ -7738,7 +7737,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>52</v>
@@ -7760,7 +7759,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39514</v>
@@ -7787,7 +7786,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>47</v>
@@ -7807,7 +7806,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39545</v>
@@ -7832,7 +7831,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f t="shared" ref="A180" si="9">EDATE(A179,1)</f>
         <v>39575</v>
@@ -7859,7 +7858,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>55</v>
@@ -7881,7 +7880,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>55</v>
@@ -7903,7 +7902,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>39606</v>
@@ -7928,7 +7927,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>103</v>
@@ -7952,7 +7951,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>123</v>
@@ -7972,7 +7971,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>39636</v>
@@ -7999,7 +7998,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>124</v>
@@ -8019,7 +8018,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="51"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>57</v>
@@ -8041,7 +8040,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>39667</v>
@@ -8068,7 +8067,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>125</v>
@@ -8088,7 +8087,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39698</v>
@@ -8113,7 +8112,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>126</v>
@@ -8137,7 +8136,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>127</v>
@@ -8157,7 +8156,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39728</v>
@@ -8184,7 +8183,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>128</v>
@@ -8204,7 +8203,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39759</v>
@@ -8231,7 +8230,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>55</v>
@@ -8253,7 +8252,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>52</v>
@@ -8275,7 +8274,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>129</v>
@@ -8295,7 +8294,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>39789</v>
@@ -8322,7 +8321,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>130</v>
@@ -8342,7 +8341,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>131</v>
       </c>
@@ -8360,7 +8359,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A200,1)</f>
         <v>39820</v>
@@ -8387,7 +8386,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8407,7 +8406,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>55</v>
@@ -8429,7 +8428,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>132</v>
@@ -8449,7 +8448,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="51"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f>EDATE(A203,1)</f>
         <v>39851</v>
@@ -8474,7 +8473,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>47</v>
@@ -8494,7 +8493,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -8514,7 +8513,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>133</v>
@@ -8534,7 +8533,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A207,1)</f>
         <v>39879</v>
@@ -8563,7 +8562,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>134</v>
@@ -8583,7 +8582,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>39910</v>
@@ -8610,7 +8609,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>135</v>
@@ -8630,7 +8629,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>39940</v>
@@ -8657,7 +8656,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>52</v>
@@ -8679,7 +8678,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>136</v>
@@ -8699,7 +8698,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A215,1)</f>
         <v>39971</v>
@@ -8728,7 +8727,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>52</v>
@@ -8750,7 +8749,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>126</v>
@@ -8772,7 +8771,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>138</v>
@@ -8794,7 +8793,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>139</v>
@@ -8814,7 +8813,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A218,1)</f>
         <v>40001</v>
@@ -8841,7 +8840,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>140</v>
@@ -8861,7 +8860,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f>EDATE(A223,1)</f>
         <v>40032</v>
@@ -8886,7 +8885,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>47</v>
@@ -8906,7 +8905,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>141</v>
@@ -8926,7 +8925,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A225,1)</f>
         <v>40063</v>
@@ -8953,7 +8952,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>55</v>
@@ -8975,7 +8974,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>142</v>
@@ -8995,7 +8994,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f>EDATE(A228,1)</f>
         <v>40093</v>
@@ -9022,7 +9021,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>143</v>
@@ -9042,7 +9041,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f>EDATE(A231,1)</f>
         <v>40124</v>
@@ -9069,7 +9068,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>55</v>
@@ -9091,7 +9090,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>145</v>
@@ -9111,7 +9110,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" ref="A236" si="10">EDATE(A233,1)</f>
         <v>40154</v>
@@ -9138,7 +9137,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>146</v>
@@ -9158,7 +9157,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="47" t="s">
         <v>147</v>
       </c>
@@ -9176,7 +9175,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>40185</v>
@@ -9201,7 +9200,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>148</v>
@@ -9221,7 +9220,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f>EDATE(A239,1)</f>
         <v>40216</v>
@@ -9248,7 +9247,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9270,7 +9269,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>150</v>
@@ -9290,7 +9289,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f>EDATE(A241,1)</f>
         <v>40244</v>
@@ -9317,7 +9316,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>52</v>
@@ -9339,7 +9338,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>151</v>
@@ -9359,7 +9358,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f>EDATE(A244,1)</f>
         <v>40275</v>
@@ -9386,7 +9385,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>61</v>
@@ -9406,7 +9405,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>126</v>
@@ -9430,7 +9429,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>152</v>
@@ -9450,7 +9449,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="51"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A247,1)</f>
         <v>40305</v>
@@ -9477,7 +9476,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>65</v>
@@ -9499,7 +9498,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>153</v>
@@ -9519,7 +9518,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>40336</v>
@@ -9548,7 +9547,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>155</v>
@@ -9570,7 +9569,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40366</v>
@@ -9597,7 +9596,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>40397</v>
@@ -9624,7 +9623,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>158</v>
@@ -9644,7 +9643,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>40428</v>
@@ -9669,7 +9668,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A259,1)</f>
         <v>40458</v>
@@ -9694,7 +9693,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" ref="A261" si="11">EDATE(A260,1)</f>
         <v>40489</v>
@@ -9721,7 +9720,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>161</v>
@@ -9741,7 +9740,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>40519</v>
@@ -9766,7 +9765,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="47" t="s">
         <v>163</v>
       </c>
@@ -9784,7 +9783,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A263,1)</f>
         <v>40550</v>
@@ -9809,7 +9808,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A265,1)</f>
         <v>40581</v>
@@ -9836,7 +9835,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>52</v>
@@ -9858,7 +9857,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>165</v>
@@ -9878,7 +9877,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="51"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40609</v>
@@ -9905,7 +9904,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>55</v>
@@ -9927,7 +9926,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>47</v>
@@ -9947,7 +9946,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>166</v>
@@ -9967,7 +9966,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40640</v>
@@ -9994,7 +9993,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>167</v>
@@ -10014,7 +10013,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EDATE(A273,1)</f>
         <v>40670</v>
@@ -10039,7 +10038,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>55</v>
@@ -10061,7 +10060,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>55</v>
@@ -10083,7 +10082,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>168</v>
@@ -10103,7 +10102,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EDATE(A275,1)</f>
         <v>40701</v>
@@ -10130,7 +10129,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>47</v>
@@ -10150,7 +10149,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>169</v>
@@ -10170,7 +10169,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A279,1)</f>
         <v>40731</v>
@@ -10197,7 +10196,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>170</v>
@@ -10217,7 +10216,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A282,1)</f>
         <v>40762</v>
@@ -10244,7 +10243,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>138</v>
@@ -10268,7 +10267,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>171</v>
@@ -10288,7 +10287,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>40793</v>
@@ -10315,7 +10314,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>126</v>
@@ -10337,7 +10336,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>172</v>
@@ -10357,7 +10356,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f>EDATE(A287,1)</f>
         <v>40823</v>
@@ -10384,7 +10383,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>138</v>
@@ -10408,7 +10407,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>126</v>
@@ -10428,7 +10427,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>173</v>
@@ -10448,7 +10447,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" ref="A294" si="12">EDATE(A290,1)</f>
         <v>40854</v>
@@ -10475,7 +10474,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>174</v>
@@ -10495,7 +10494,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f>EDATE(A294,1)</f>
         <v>40884</v>
@@ -10522,7 +10521,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>175</v>
@@ -10542,7 +10541,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="47" t="s">
         <v>176</v>
       </c>
@@ -10560,7 +10559,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40915</v>
@@ -10587,7 +10586,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>103</v>
@@ -10611,7 +10610,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>177</v>
@@ -10633,7 +10632,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f>EDATE(A299,1)</f>
         <v>40946</v>
@@ -10662,7 +10661,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>178</v>
@@ -10682,7 +10681,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A302,1)</f>
         <v>40975</v>
@@ -10711,7 +10710,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>61</v>
@@ -10733,7 +10732,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>179</v>
@@ -10753,7 +10752,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>41006</v>
@@ -10782,7 +10781,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>180</v>
@@ -10802,7 +10801,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>41036</v>
@@ -10829,7 +10828,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>181</v>
@@ -10849,7 +10848,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>50</v>
@@ -10871,7 +10870,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>108</v>
@@ -10893,7 +10892,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>41067</v>
@@ -10918,7 +10917,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A319" si="13">EDATE(A313,1)</f>
         <v>41097</v>
@@ -10943,7 +10942,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10965,7 +10964,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>184</v>
@@ -10985,7 +10984,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>41128</v>
@@ -11010,7 +11009,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f t="shared" si="13"/>
         <v>41159</v>
@@ -11035,7 +11034,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f t="shared" si="13"/>
         <v>41189</v>
@@ -11062,7 +11061,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>55</v>
@@ -11084,7 +11083,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>187</v>
@@ -11104,7 +11103,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <f>EDATE(A319,1)</f>
         <v>41220</v>
@@ -11131,7 +11130,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>188</v>
@@ -11151,7 +11150,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A322,1)</f>
         <v>41250</v>
@@ -11180,7 +11179,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>189</v>
@@ -11200,7 +11199,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="47" t="s">
         <v>190</v>
       </c>
@@ -11218,7 +11217,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A324,1)</f>
         <v>41281</v>
@@ -11249,7 +11248,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>192</v>
@@ -11269,7 +11268,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f>EDATE(A327,1)</f>
         <v>41312</v>
@@ -11296,7 +11295,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>188</v>
@@ -11316,7 +11315,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="51"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>41340</v>
@@ -11343,7 +11342,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>77</v>
@@ -11363,7 +11362,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>41371</v>
@@ -11390,7 +11389,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>193</v>
@@ -11410,7 +11409,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f>EDATE(A333,1)</f>
         <v>41401</v>
@@ -11437,7 +11436,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>194</v>
@@ -11457,7 +11456,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <f>EDATE(A335,1)</f>
         <v>41432</v>
@@ -11484,7 +11483,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>150</v>
@@ -11504,7 +11503,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f>EDATE(A337,1)</f>
         <v>41462</v>
@@ -11529,7 +11528,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <f t="shared" ref="A340" si="14">EDATE(A339,1)</f>
         <v>41493</v>
@@ -11556,7 +11555,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>196</v>
@@ -11576,7 +11575,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="51"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <f>EDATE(A340,1)</f>
         <v>41524</v>
@@ -11603,7 +11602,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>197</v>
@@ -11623,7 +11622,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="51"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f>EDATE(A342,1)</f>
         <v>41554</v>
@@ -11650,7 +11649,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>50</v>
@@ -11672,7 +11671,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>198</v>
@@ -11692,7 +11691,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f>EDATE(A344,1)</f>
         <v>41585</v>
@@ -11719,7 +11718,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>183</v>
@@ -11739,7 +11738,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>199</v>
@@ -11759,7 +11758,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A347,1)</f>
         <v>41615</v>
@@ -11786,7 +11785,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>200</v>
@@ -11806,7 +11805,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="47" t="s">
         <v>201</v>
       </c>
@@ -11824,7 +11823,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A350,1)</f>
         <v>41646</v>
@@ -11851,7 +11850,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>52</v>
@@ -11873,7 +11872,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>202</v>
@@ -11893,7 +11892,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A353,1)</f>
         <v>41677</v>
@@ -11920,7 +11919,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>144</v>
@@ -11942,7 +11941,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>55</v>
@@ -11964,7 +11963,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>144</v>
@@ -11986,7 +11985,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>203</v>
@@ -12006,7 +12005,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f>EDATE(A356,1)</f>
         <v>41705</v>
@@ -12031,7 +12030,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f t="shared" ref="A362:A363" si="15">EDATE(A361,1)</f>
         <v>41736</v>
@@ -12056,7 +12055,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f t="shared" si="15"/>
         <v>41766</v>
@@ -12083,7 +12082,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>206</v>
@@ -12103,7 +12102,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>41797</v>
@@ -12130,7 +12129,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>55</v>
@@ -12152,7 +12151,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>208</v>
@@ -12172,7 +12171,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41827</v>
@@ -12199,7 +12198,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>61</v>
@@ -12221,7 +12220,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>47</v>
@@ -12241,7 +12240,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>209</v>
@@ -12261,7 +12260,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A368,1)</f>
         <v>41858</v>
@@ -12288,7 +12287,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>210</v>
@@ -12308,7 +12307,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41889</v>
@@ -12333,7 +12332,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>101</v>
@@ -12357,7 +12356,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>211</v>
@@ -12377,7 +12376,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f>EDATE(A374,1)</f>
         <v>41919</v>
@@ -12404,7 +12403,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>212</v>
@@ -12424,7 +12423,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>41950</v>
@@ -12451,7 +12450,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>103</v>
@@ -12475,7 +12474,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>48</v>
@@ -12495,7 +12494,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>213</v>
@@ -12515,7 +12514,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <f>EDATE(A379,1)</f>
         <v>41980</v>
@@ -12540,7 +12539,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="47" t="s">
         <v>215</v>
       </c>
@@ -12558,7 +12557,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A383,1)</f>
         <v>42011</v>
@@ -12585,7 +12584,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>55</v>
@@ -12607,7 +12606,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>216</v>
@@ -12627,7 +12626,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f>EDATE(A385,1)</f>
         <v>42042</v>
@@ -12654,7 +12653,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>55</v>
@@ -12676,7 +12675,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>217</v>
@@ -12696,7 +12695,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>42070</v>
@@ -12723,7 +12722,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>218</v>
@@ -12743,7 +12742,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42101</v>
@@ -12768,7 +12767,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>219</v>
@@ -12788,7 +12787,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42131</v>
@@ -12815,7 +12814,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>220</v>
@@ -12835,7 +12834,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42162</v>
@@ -12862,7 +12861,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>55</v>
@@ -12884,7 +12883,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>221</v>
@@ -12904,7 +12903,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <f>EDATE(A397,1)</f>
         <v>42192</v>
@@ -12933,7 +12932,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>222</v>
@@ -12953,7 +12952,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f>EDATE(A400,1)</f>
         <v>42223</v>
@@ -12982,7 +12981,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -13004,7 +13003,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>223</v>
@@ -13024,7 +13023,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42254</v>
@@ -13049,7 +13048,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f t="shared" ref="A406:A407" si="16">EDATE(A405,1)</f>
         <v>42284</v>
@@ -13074,7 +13073,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f t="shared" si="16"/>
         <v>42315</v>
@@ -13101,7 +13100,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>226</v>
@@ -13121,7 +13120,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f>EDATE(A407,1)</f>
         <v>42345</v>
@@ -13148,7 +13147,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="47"/>
       <c r="B410" s="20" t="s">
         <v>227</v>
@@ -13168,7 +13167,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
         <v>228</v>
       </c>
@@ -13186,7 +13185,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42376</v>
@@ -13211,7 +13210,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A412,1)</f>
         <v>42407</v>
@@ -13238,7 +13237,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>56</v>
@@ -13260,7 +13259,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -13282,7 +13281,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>231</v>
@@ -13302,7 +13301,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f>EDATE(A413,1)</f>
         <v>42436</v>
@@ -13327,7 +13326,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A432" si="17">EDATE(A417,1)</f>
         <v>42467</v>
@@ -13352,7 +13351,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13374,7 +13373,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>233</v>
@@ -13394,7 +13393,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <f>EDATE(A418,1)</f>
         <v>42497</v>
@@ -13419,7 +13418,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f t="shared" si="17"/>
         <v>42528</v>
@@ -13448,7 +13447,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>235</v>
@@ -13468,7 +13467,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>42558</v>
@@ -13495,7 +13494,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>236</v>
@@ -13515,7 +13514,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f>EDATE(A424,1)</f>
         <v>42589</v>
@@ -13540,7 +13539,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>237</v>
@@ -13560,7 +13559,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A426,1)</f>
         <v>42620</v>
@@ -13587,7 +13586,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>55</v>
@@ -13609,7 +13608,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>238</v>
@@ -13629,7 +13628,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>42650</v>
@@ -13654,7 +13653,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f t="shared" si="17"/>
         <v>42681</v>
@@ -13679,7 +13678,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <f>EDATE(A432,1)</f>
         <v>42711</v>
@@ -13706,7 +13705,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="47"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -13726,7 +13725,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="47"/>
       <c r="B435" s="20" t="s">
         <v>74</v>
@@ -13746,7 +13745,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="47" t="s">
         <v>241</v>
       </c>
@@ -13764,7 +13763,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f>EDATE(A433,1)</f>
         <v>42742</v>
@@ -13791,7 +13790,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23" t="s">
         <v>242</v>
       </c>
@@ -13813,7 +13812,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f>EDATE(A437,1)</f>
         <v>42773</v>
@@ -13840,7 +13839,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>243</v>
@@ -13860,7 +13859,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f>EDATE(A439,1)</f>
         <v>42801</v>
@@ -13887,7 +13886,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -13907,7 +13906,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>244</v>
@@ -13927,7 +13926,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A441,1)</f>
         <v>42832</v>
@@ -13954,7 +13953,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -13974,7 +13973,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>55</v>
@@ -13996,7 +13995,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>245</v>
@@ -14016,7 +14015,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>55</v>
@@ -14038,7 +14037,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A444,1)</f>
         <v>42862</v>
@@ -14063,7 +14062,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <f t="shared" ref="A450:A459" si="18">EDATE(A449,1)</f>
         <v>42893</v>
@@ -14088,7 +14087,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f t="shared" si="18"/>
         <v>42923</v>
@@ -14115,7 +14114,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>47</v>
@@ -14135,7 +14134,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>55</v>
@@ -14157,7 +14156,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>52</v>
@@ -14179,7 +14178,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>52</v>
@@ -14201,7 +14200,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>247</v>
@@ -14221,7 +14220,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f>EDATE(A451,1)</f>
         <v>42954</v>
@@ -14246,7 +14245,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <f t="shared" si="18"/>
         <v>42985</v>
@@ -14267,7 +14266,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <f t="shared" si="18"/>
         <v>43015</v>
@@ -14294,7 +14293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>55</v>
@@ -14316,7 +14315,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>184</v>
@@ -14336,7 +14335,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f>EDATE(A459,1)</f>
         <v>43046</v>
@@ -14357,7 +14356,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f>EDATE(A462,1)</f>
         <v>43076</v>
@@ -14384,7 +14383,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="47"/>
       <c r="B464" s="20" t="s">
         <v>126</v>
@@ -14408,7 +14407,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="47" t="s">
         <v>249</v>
       </c>
@@ -14426,7 +14425,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>43107</v>
@@ -14451,7 +14450,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>55</v>
@@ -14473,7 +14472,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>250</v>
@@ -14495,7 +14494,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>43138</v>
@@ -14520,7 +14519,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <f t="shared" ref="A470:A485" si="19">EDATE(A469,1)</f>
         <v>43166</v>
@@ -14541,7 +14540,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f t="shared" si="19"/>
         <v>43197</v>
@@ -14562,7 +14561,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f t="shared" si="19"/>
         <v>43227</v>
@@ -14587,7 +14586,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f t="shared" si="19"/>
         <v>43258</v>
@@ -14612,7 +14611,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <f t="shared" si="19"/>
         <v>43288</v>
@@ -14639,7 +14638,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>99</v>
@@ -14659,7 +14658,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <f>EDATE(A474,1)</f>
         <v>43319</v>
@@ -14686,7 +14685,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>47</v>
@@ -14706,7 +14705,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>253</v>
@@ -14726,7 +14725,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f>EDATE(A476,1)</f>
         <v>43350</v>
@@ -14753,7 +14752,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>55</v>
@@ -14775,7 +14774,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>254</v>
@@ -14795,7 +14794,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>43380</v>
@@ -14820,7 +14819,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>255</v>
@@ -14840,7 +14839,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>43411</v>
@@ -14865,7 +14864,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f t="shared" si="19"/>
         <v>43441</v>
@@ -14890,7 +14889,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="47" t="s">
         <v>258</v>
       </c>
@@ -14908,7 +14907,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <f>EDATE(A485,1)</f>
         <v>43472</v>
@@ -14933,7 +14932,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>55</v>
@@ -14955,7 +14954,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>259</v>
@@ -14975,7 +14974,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f>EDATE(A487,1)</f>
         <v>43503</v>
@@ -15002,7 +15001,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>74</v>
@@ -15022,7 +15021,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <f>EDATE(A490,1)</f>
         <v>43531</v>
@@ -15047,7 +15046,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23">
         <f t="shared" ref="A493:A508" si="20">EDATE(A492,1)</f>
         <v>43562</v>
@@ -15072,7 +15071,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>55</v>
@@ -15094,7 +15093,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>52</v>
@@ -15116,7 +15115,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23"/>
       <c r="B496" s="20" t="s">
         <v>55</v>
@@ -15138,7 +15137,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>260</v>
@@ -15158,7 +15157,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <f>EDATE(A493,1)</f>
         <v>43592</v>
@@ -15185,7 +15184,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>61</v>
@@ -15207,7 +15206,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>261</v>
@@ -15227,7 +15226,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <f>EDATE(A498,1)</f>
         <v>43623</v>
@@ -15252,7 +15251,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>262</v>
@@ -15272,7 +15271,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <f>EDATE(A501,1)</f>
         <v>43653</v>
@@ -15299,7 +15298,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
         <v>55</v>
@@ -15321,7 +15320,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>55</v>
@@ -15343,7 +15342,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23"/>
       <c r="B506" s="20" t="s">
         <v>263</v>
@@ -15363,7 +15362,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="51"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <f>EDATE(A503,1)</f>
         <v>43684</v>
@@ -15388,7 +15387,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23">
         <f t="shared" si="20"/>
         <v>43715</v>
@@ -15415,7 +15414,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>151</v>
@@ -15435,7 +15434,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <f>EDATE(A508,1)</f>
         <v>43745</v>
@@ -15462,7 +15461,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>55</v>
@@ -15484,7 +15483,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>52</v>
@@ -15506,7 +15505,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>55</v>
@@ -15528,7 +15527,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23"/>
       <c r="B514" s="20" t="s">
         <v>210</v>
@@ -15548,7 +15547,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <f>EDATE(A510,1)</f>
         <v>43776</v>
@@ -15575,7 +15574,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>52</v>
@@ -15597,7 +15596,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>265</v>
@@ -15617,7 +15616,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <f>EDATE(A515,1)</f>
         <v>43806</v>
@@ -15644,7 +15643,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="47" t="s">
         <v>266</v>
       </c>
@@ -15662,7 +15661,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23">
         <f>EDATE(A518,1)</f>
         <v>43837</v>
@@ -15689,7 +15688,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>267</v>
@@ -15709,7 +15708,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <f>EDATE(A520,1)</f>
         <v>43868</v>
@@ -15732,7 +15731,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23">
         <f t="shared" ref="A523:A533" si="21">EDATE(A522,1)</f>
         <v>43897</v>
@@ -15753,7 +15752,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23">
         <f t="shared" si="21"/>
         <v>43928</v>
@@ -15774,7 +15773,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <f t="shared" si="21"/>
         <v>43958</v>
@@ -15795,7 +15794,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23">
         <f t="shared" si="21"/>
         <v>43989</v>
@@ -15816,7 +15815,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23">
         <f t="shared" si="21"/>
         <v>44019</v>
@@ -15837,7 +15836,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23">
         <f t="shared" si="21"/>
         <v>44050</v>
@@ -15858,7 +15857,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23">
         <f t="shared" si="21"/>
         <v>44081</v>
@@ -15885,7 +15884,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15905,7 +15904,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23">
         <f>EDATE(A529,1)</f>
         <v>44111</v>
@@ -15930,7 +15929,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <f t="shared" si="21"/>
         <v>44142</v>
@@ -15951,7 +15950,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23">
         <f t="shared" si="21"/>
         <v>44172</v>
@@ -15978,7 +15977,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="47" t="s">
         <v>45</v>
       </c>
@@ -15996,7 +15995,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39">
         <v>44197</v>
       </c>
@@ -16020,7 +16019,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39">
         <v>44228</v>
       </c>
@@ -16044,7 +16043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39"/>
       <c r="B537" s="20" t="s">
         <v>50</v>
@@ -16066,7 +16065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39">
         <v>44256</v>
       </c>
@@ -16086,7 +16085,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="39">
         <v>44287</v>
       </c>
@@ -16112,7 +16111,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39">
         <v>44317</v>
       </c>
@@ -16132,7 +16131,7 @@
       <c r="J540" s="12"/>
       <c r="K540" s="15"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39">
         <v>44348</v>
       </c>
@@ -16152,7 +16151,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39">
         <v>44378</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="39">
         <v>44409</v>
       </c>
@@ -16198,7 +16197,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39">
         <v>44440</v>
       </c>
@@ -16218,7 +16217,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39">
         <v>44470</v>
       </c>
@@ -16244,7 +16243,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39">
         <v>44501</v>
       </c>
@@ -16270,7 +16269,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39">
         <v>44531</v>
       </c>
@@ -16296,7 +16295,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="47" t="s">
         <v>46</v>
       </c>
@@ -16314,7 +16313,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39">
         <v>44562</v>
       </c>
@@ -16340,7 +16339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="39">
         <v>44593</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39">
         <v>44621</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39"/>
       <c r="B552" s="20" t="s">
         <v>260</v>
@@ -16410,7 +16409,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="48"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39">
         <v>44652</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39"/>
       <c r="B554" s="20" t="s">
         <v>410</v>
@@ -16456,7 +16455,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="39">
         <v>44682</v>
       </c>
@@ -16480,7 +16479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39"/>
       <c r="B556" s="20" t="s">
         <v>409</v>
@@ -16500,7 +16499,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39">
         <v>44713</v>
       </c>
@@ -16526,7 +16525,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="39"/>
       <c r="B558" s="20" t="s">
         <v>408</v>
@@ -16546,7 +16545,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="48"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="39">
         <v>44743</v>
       </c>
@@ -16572,7 +16571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="39"/>
       <c r="B560" s="20" t="s">
         <v>61</v>
@@ -16594,7 +16593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="39"/>
       <c r="B561" s="20" t="s">
         <v>407</v>
@@ -16614,7 +16613,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="39">
         <v>44774</v>
       </c>
@@ -16640,7 +16639,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="39"/>
       <c r="B563" s="20" t="s">
         <v>405</v>
@@ -16660,7 +16659,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="48"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="39"/>
       <c r="B564" s="20" t="s">
         <v>406</v>
@@ -16680,7 +16679,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="48"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39">
         <v>44805</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="39"/>
       <c r="B566" s="20" t="s">
         <v>55</v>
@@ -16728,7 +16727,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39"/>
       <c r="B567" s="20" t="s">
         <v>404</v>
@@ -16748,7 +16747,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="48"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39">
         <v>44835</v>
       </c>
@@ -16772,7 +16771,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39">
         <v>44866</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39"/>
       <c r="B570" s="20" t="s">
         <v>61</v>
@@ -16820,7 +16819,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39"/>
       <c r="B571" s="20" t="s">
         <v>402</v>
@@ -16840,7 +16839,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39">
         <v>44896</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39"/>
       <c r="B573" s="20" t="s">
         <v>401</v>
@@ -16886,7 +16885,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="47" t="s">
         <v>67</v>
       </c>
@@ -16904,7 +16903,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39">
         <v>44927</v>
       </c>
@@ -16930,7 +16929,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39">
         <v>44958</v>
       </c>
@@ -16956,7 +16955,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39"/>
       <c r="B577" s="20" t="s">
         <v>47</v>
@@ -16976,7 +16975,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39">
         <v>44986</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39">
         <v>45017</v>
       </c>
@@ -17020,7 +17019,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
         <v>45047</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39"/>
       <c r="B581" s="20" t="s">
         <v>52</v>
@@ -17068,7 +17067,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39"/>
       <c r="B582" s="20" t="s">
         <v>55</v>
@@ -17090,7 +17089,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
         <v>45078</v>
       </c>
@@ -17116,7 +17115,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39"/>
       <c r="B584" s="20" t="s">
         <v>55</v>
@@ -17138,7 +17137,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39">
         <v>45108</v>
       </c>
@@ -17164,7 +17163,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
         <v>45139</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -17212,7 +17211,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39">
         <v>45170</v>
       </c>
@@ -17238,7 +17237,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
         <v>45200</v>
       </c>
@@ -17258,7 +17257,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
         <v>45231</v>
       </c>
@@ -17278,20 +17277,22 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39">
         <v>45261</v>
       </c>
       <c r="B591" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C591" s="13"/>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D591" s="38"/>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H591" s="38"/>
       <c r="I591" s="9"/>
@@ -17300,7 +17301,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="47" t="s">
         <v>411</v>
       </c>
@@ -17318,11 +17319,13 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
         <v>45292</v>
       </c>
-      <c r="B593" s="20"/>
+      <c r="B593" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C593" s="13"/>
       <c r="D593" s="38"/>
       <c r="E593" s="9"/>
@@ -17331,32 +17334,35 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H593" s="38"/>
+      <c r="H593" s="38">
+        <v>1</v>
+      </c>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B594" s="20"/>
+      <c r="K593" s="48">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="39"/>
+      <c r="B594" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C594" s="13"/>
       <c r="D594" s="38"/>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G594" s="13"/>
       <c r="H594" s="38"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K594" s="48">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17372,9 +17378,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17390,9 +17396,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17408,9 +17414,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17426,9 +17432,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17444,9 +17450,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17462,9 +17468,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17480,9 +17486,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17498,9 +17504,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17516,9 +17522,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17534,9 +17540,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17552,9 +17558,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17570,9 +17576,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17588,9 +17594,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17606,9 +17612,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17624,9 +17630,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17642,9 +17648,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17660,9 +17666,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17678,9 +17684,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17696,9 +17702,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17714,9 +17720,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17732,9 +17738,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17750,9 +17756,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17768,9 +17774,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17786,9 +17792,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17804,9 +17810,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17822,9 +17828,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17840,9 +17846,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17858,9 +17864,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17876,9 +17882,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17894,9 +17900,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17912,9 +17918,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17930,9 +17936,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17948,9 +17954,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17966,9 +17972,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17984,9 +17990,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -18002,9 +18008,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18020,9 +18026,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18038,9 +18044,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18056,9 +18062,9 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18074,9 +18080,9 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18092,9 +18098,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18110,9 +18116,9 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18128,9 +18134,9 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18146,9 +18152,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18164,9 +18170,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18182,9 +18188,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18200,9 +18206,9 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18218,9 +18224,9 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18236,9 +18242,9 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18254,9 +18260,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18272,9 +18278,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18290,9 +18296,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18308,9 +18314,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18326,9 +18332,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18344,9 +18350,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18362,9 +18368,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18380,9 +18386,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18398,9 +18404,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18416,9 +18422,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18434,9 +18440,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18452,9 +18458,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18470,9 +18476,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18488,9 +18494,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="39">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18506,9 +18512,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18524,9 +18530,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18542,9 +18548,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="39">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18560,9 +18566,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="39">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18578,9 +18584,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="39">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18596,9 +18602,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="39">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18614,8 +18620,10 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A665" s="39"/>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A665" s="39">
+        <v>47453</v>
+      </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
       <c r="D665" s="38"/>
@@ -18630,7 +18638,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="39"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18646,7 +18654,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="39"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18662,7 +18670,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="39"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18678,7 +18686,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="39"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18694,7 +18702,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="39"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18710,7 +18718,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="39"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18726,7 +18734,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="39"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18742,7 +18750,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="39"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18758,21 +18766,37 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A674" s="40"/>
-      <c r="B674" s="15"/>
-      <c r="C674" s="41"/>
-      <c r="D674" s="42"/>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A674" s="39"/>
+      <c r="B674" s="20"/>
+      <c r="C674" s="13"/>
+      <c r="D674" s="38"/>
       <c r="E674" s="9"/>
-      <c r="F674" s="15"/>
+      <c r="F674" s="20"/>
       <c r="G674" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H674" s="42"/>
+      <c r="H674" s="38"/>
       <c r="I674" s="9"/>
-      <c r="J674" s="12"/>
-      <c r="K674" s="15"/>
+      <c r="J674" s="11"/>
+      <c r="K674" s="20"/>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A675" s="40"/>
+      <c r="B675" s="15"/>
+      <c r="C675" s="41"/>
+      <c r="D675" s="42"/>
+      <c r="E675" s="9"/>
+      <c r="F675" s="15"/>
+      <c r="G675" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H675" s="42"/>
+      <c r="I675" s="9"/>
+      <c r="J675" s="12"/>
+      <c r="K675" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -18788,10 +18812,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18814,28 +18838,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>32</v>
       </c>
@@ -18848,7 +18872,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18877,7 +18901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18901,17 +18925,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18932,7 +18956,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18959,7 +18983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18985,7 +19009,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -19011,7 +19035,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -19037,7 +19061,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -19063,7 +19087,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -19089,7 +19113,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -19115,7 +19139,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -19141,7 +19165,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -19161,7 +19185,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -19181,7 +19205,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -19201,7 +19225,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -19222,7 +19246,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -19243,7 +19267,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -19264,7 +19288,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -19285,7 +19309,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -19306,7 +19330,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -19327,7 +19351,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -19348,7 +19372,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -19369,7 +19393,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -19390,7 +19414,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -19411,7 +19435,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -19432,7 +19456,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -19453,7 +19477,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -19474,7 +19498,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -19495,7 +19519,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -19516,7 +19540,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -19537,7 +19561,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -19558,7 +19582,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -19579,7 +19603,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -19600,7 +19624,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -19621,7 +19645,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -19630,7 +19654,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -19639,7 +19663,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -19648,7 +19672,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -19657,7 +19681,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -19666,7 +19690,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -19675,7 +19699,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -19684,7 +19708,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -19693,7 +19717,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -19702,7 +19726,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -19711,7 +19735,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -19720,7 +19744,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -19729,7 +19753,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -19738,7 +19762,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -19747,7 +19771,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -19756,7 +19780,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -19765,7 +19789,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -19774,7 +19798,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -19783,7 +19807,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19792,7 +19816,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19801,7 +19825,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19810,7 +19834,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19819,7 +19843,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19828,7 +19852,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19837,7 +19861,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19846,7 +19870,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19855,7 +19879,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19864,7 +19888,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19873,7 +19897,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19882,7 +19906,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="421">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1270,6 +1270,33 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-4-10)</t>
+  </si>
+  <si>
+    <t>UT(0-0-8)</t>
+  </si>
+  <si>
+    <t>UT(0-4-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>UT(0-0-14)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>1/13/2023 (17)</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +2016,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2059,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2123,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2183,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2249,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2410,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2469,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2534,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2577,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2652,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2838,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2904,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2962,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3001,7 +3028,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3084,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3159,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3202,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3268,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3324,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,8 +3420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K675" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K675"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K685" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K685"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3741,12 +3768,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K675"/>
+  <dimension ref="A2:K685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A579" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A570" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E593" sqref="E593"/>
+      <selection pane="bottomLeft" activeCell="F580" sqref="F580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,7 +3938,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.2460000000000377</v>
+        <v>5.1930000000000405</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16925,136 +16952,130 @@
       <c r="H575" s="38"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="48">
-        <v>44939</v>
+      <c r="K575" s="48" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="39">
-        <v>44958</v>
-      </c>
+      <c r="A576" s="39"/>
       <c r="B576" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C576" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D576" s="38"/>
+        <v>415</v>
+      </c>
+      <c r="C576" s="13"/>
+      <c r="D576" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E576" s="13"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H576" s="38">
-        <v>1</v>
-      </c>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="38"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="48">
-        <v>44965</v>
-      </c>
+      <c r="K576" s="48"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="39"/>
+      <c r="A577" s="39">
+        <v>44958</v>
+      </c>
       <c r="B577" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C577" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="38"/>
       <c r="E577" s="13"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H577" s="38"/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H577" s="38">
+        <v>1</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="48">
-        <v>44958</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="39">
-        <v>44986</v>
-      </c>
+      <c r="A578" s="39"/>
       <c r="B578" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C578" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C578" s="13"/>
       <c r="D578" s="38"/>
       <c r="E578" s="13"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H578" s="38"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
       <c r="K578" s="48">
-        <v>44995</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="39">
-        <v>45017</v>
-      </c>
-      <c r="B579" s="20"/>
-      <c r="C579" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D579" s="38"/>
-      <c r="E579" s="9"/>
+      <c r="A579" s="39"/>
+      <c r="B579" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C579" s="13"/>
+      <c r="D579" s="38">
+        <v>6.0000000000000019E-2</v>
+      </c>
+      <c r="E579" s="13"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H579" s="38"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="48"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B580" s="20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C580" s="13">
         <v>1.25</v>
       </c>
       <c r="D580" s="38"/>
-      <c r="E580" s="9"/>
+      <c r="E580" s="13"/>
       <c r="F580" s="20"/>
       <c r="G580" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H580" s="38">
-        <v>1</v>
-      </c>
+      <c r="H580" s="38"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
       <c r="K580" s="48">
-        <v>45056</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39"/>
       <c r="B581" s="20" t="s">
-        <v>52</v>
+        <v>417</v>
       </c>
       <c r="C581" s="13"/>
       <c r="D581" s="38">
-        <v>1</v>
-      </c>
-      <c r="E581" s="9"/>
+        <v>2.9000000000000012E-2</v>
+      </c>
+      <c r="E581" s="13"/>
       <c r="F581" s="20"/>
       <c r="G581" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -17063,35 +17084,31 @@
       <c r="H581" s="38"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="48">
-        <v>45061</v>
-      </c>
+      <c r="K581" s="48"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="39"/>
-      <c r="B582" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C582" s="13"/>
+      <c r="A582" s="39">
+        <v>45017</v>
+      </c>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D582" s="38"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H582" s="38">
-        <v>1</v>
-      </c>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H582" s="38"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="48">
-        <v>45061</v>
-      </c>
+      <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B583" s="20" t="s">
         <v>55</v>
@@ -17112,95 +17129,89 @@
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
       <c r="K583" s="48">
-        <v>45090</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39"/>
       <c r="B584" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C584" s="13"/>
-      <c r="D584" s="38"/>
+      <c r="D584" s="38">
+        <v>1</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
       <c r="G584" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H584" s="38">
-        <v>1</v>
-      </c>
+      <c r="H584" s="38"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
       <c r="K584" s="48">
-        <v>45100</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="39">
-        <v>45108</v>
-      </c>
+      <c r="A585" s="39"/>
       <c r="B585" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C585" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D585" s="38">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C585" s="13"/>
+      <c r="D585" s="38"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H585" s="38"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="38">
+        <v>1</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20" t="s">
-        <v>400</v>
+      <c r="K585" s="48">
+        <v>45065</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A586" s="39"/>
       <c r="B586" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C586" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D586" s="38"/>
+        <v>418</v>
+      </c>
+      <c r="C586" s="13"/>
+      <c r="D586" s="38">
+        <v>2E-3</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H586" s="38">
-        <v>1</v>
-      </c>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="38"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="48">
-        <v>45149</v>
-      </c>
+      <c r="K586" s="48"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="39"/>
+      <c r="A587" s="39">
+        <v>45078</v>
+      </c>
       <c r="B587" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C587" s="13"/>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D587" s="38"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H587" s="38">
         <v>1</v>
@@ -17208,25 +17219,21 @@
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
       <c r="K587" s="48">
-        <v>45163</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="39">
-        <v>45170</v>
-      </c>
+      <c r="A588" s="39"/>
       <c r="B588" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C588" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C588" s="13"/>
       <c r="D588" s="38"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H588" s="38">
         <v>1</v>
@@ -17234,38 +17241,42 @@
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
       <c r="K588" s="48">
-        <v>45188</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B589" s="20"/>
-      <c r="C589" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D589" s="38"/>
+      <c r="A589" s="39"/>
+      <c r="B589" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C589" s="13"/>
+      <c r="D589" s="38">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H589" s="38"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
+      <c r="K589" s="48"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B590" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B590" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C590" s="13">
         <v>1.25</v>
       </c>
-      <c r="D590" s="38"/>
+      <c r="D590" s="38">
+        <v>3</v>
+      </c>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
       <c r="G590" s="13">
@@ -17275,54 +17286,58 @@
       <c r="H590" s="38"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
+      <c r="K590" s="20" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="39">
-        <v>45261</v>
-      </c>
+      <c r="A591" s="39"/>
       <c r="B591" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C591" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D591" s="38"/>
+        <v>416</v>
+      </c>
+      <c r="C591" s="13"/>
+      <c r="D591" s="38">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G591" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H591" s="38"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="48">
-        <v>45278</v>
-      </c>
+      <c r="K591" s="20"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="B592" s="20"/>
-      <c r="C592" s="13"/>
+      <c r="A592" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B592" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D592" s="38"/>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H592" s="38"/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H592" s="38">
+        <v>1</v>
+      </c>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
+      <c r="K592" s="48">
+        <v>45149</v>
+      </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="39">
-        <v>45292</v>
-      </c>
+      <c r="A593" s="39"/>
       <c r="B593" s="20" t="s">
         <v>55</v>
       </c>
@@ -17340,51 +17355,64 @@
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="48">
-        <v>45289</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39"/>
       <c r="B594" s="20" t="s">
-        <v>47</v>
+        <v>415</v>
       </c>
       <c r="C594" s="13"/>
-      <c r="D594" s="38"/>
+      <c r="D594" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13"/>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H594" s="38"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="48">
-        <v>45293</v>
-      </c>
+      <c r="K594" s="48"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B595" s="20"/>
-      <c r="C595" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B595" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D595" s="38"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H595" s="38"/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H595" s="38">
+        <v>1</v>
+      </c>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="48">
+        <v>45188</v>
+      </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B596" s="20"/>
+      <c r="A596" s="39"/>
+      <c r="B596" s="20" t="s">
+        <v>414</v>
+      </c>
       <c r="C596" s="13"/>
-      <c r="D596" s="38"/>
+      <c r="D596" s="38">
+        <v>0.51500000000000001</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
       <c r="G596" s="13" t="str">
@@ -17394,33 +17422,43 @@
       <c r="H596" s="38"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
+      <c r="K596" s="48"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B597" s="20"/>
-      <c r="C597" s="13"/>
-      <c r="D597" s="38"/>
+        <v>45200</v>
+      </c>
+      <c r="B597" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D597" s="38">
+        <v>1</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G597" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H597" s="38"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
+      <c r="K597" s="48">
+        <v>45218</v>
+      </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B598" s="20"/>
+      <c r="A598" s="39"/>
+      <c r="B598" s="20" t="s">
+        <v>413</v>
+      </c>
       <c r="C598" s="13"/>
-      <c r="D598" s="38"/>
+      <c r="D598" s="38">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
       <c r="G598" s="13" t="str">
@@ -17430,20 +17468,26 @@
       <c r="H598" s="38"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20"/>
+      <c r="K598" s="48"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
-        <v>45444</v>
-      </c>
-      <c r="B599" s="20"/>
-      <c r="C599" s="13"/>
-      <c r="D599" s="38"/>
+        <v>45231</v>
+      </c>
+      <c r="B599" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C599" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D599" s="38">
+        <v>0.52100000000000002</v>
+      </c>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G599" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H599" s="38"/>
       <c r="I599" s="9"/>
@@ -17452,29 +17496,37 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
-        <v>45474</v>
-      </c>
-      <c r="B600" s="20"/>
-      <c r="C600" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B600" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C600" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D600" s="38"/>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G600" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H600" s="38"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20"/>
+      <c r="K600" s="48">
+        <v>45278</v>
+      </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="39">
-        <v>45505</v>
-      </c>
-      <c r="B601" s="20"/>
+      <c r="A601" s="39"/>
+      <c r="B601" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C601" s="13"/>
-      <c r="D601" s="38"/>
+      <c r="D601" s="38">
+        <v>0.81699999999999995</v>
+      </c>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
       <c r="G601" s="13" t="str">
@@ -17484,11 +17536,11 @@
       <c r="H601" s="38"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
+      <c r="K601" s="48"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="39">
-        <v>45536</v>
+      <c r="A602" s="47" t="s">
+        <v>411</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17506,9 +17558,11 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
-        <v>45566</v>
-      </c>
-      <c r="B603" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B603" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C603" s="13"/>
       <c r="D603" s="38"/>
       <c r="E603" s="9"/>
@@ -17517,32 +17571,35 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H603" s="38"/>
+      <c r="H603" s="38">
+        <v>1</v>
+      </c>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
+      <c r="K603" s="48">
+        <v>45289</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="39">
-        <v>45597</v>
-      </c>
-      <c r="B604" s="20"/>
+      <c r="A604" s="39"/>
+      <c r="B604" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C604" s="13"/>
       <c r="D604" s="38"/>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G604" s="13"/>
       <c r="H604" s="38"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20"/>
+      <c r="K604" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39">
-        <v>45627</v>
+        <v>45323</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17560,7 +17617,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
-        <v>45658</v>
+        <v>45352</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17578,7 +17635,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39">
-        <v>45689</v>
+        <v>45383</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17596,7 +17653,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
-        <v>45717</v>
+        <v>45413</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17614,7 +17671,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
-        <v>45748</v>
+        <v>45444</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17632,7 +17689,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39">
-        <v>45778</v>
+        <v>45474</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17650,7 +17707,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
-        <v>45809</v>
+        <v>45505</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17668,7 +17725,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
-        <v>45839</v>
+        <v>45536</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17686,7 +17743,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
-        <v>45870</v>
+        <v>45566</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17704,7 +17761,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
-        <v>45901</v>
+        <v>45597</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17722,7 +17779,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
-        <v>45931</v>
+        <v>45627</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17740,7 +17797,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
-        <v>45962</v>
+        <v>45658</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17758,7 +17815,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
-        <v>45992</v>
+        <v>45689</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17776,7 +17833,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
-        <v>46023</v>
+        <v>45717</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17794,7 +17851,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
-        <v>46054</v>
+        <v>45748</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17812,7 +17869,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>46082</v>
+        <v>45778</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17830,7 +17887,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
-        <v>46113</v>
+        <v>45809</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17848,7 +17905,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
-        <v>46143</v>
+        <v>45839</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17866,7 +17923,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
-        <v>46174</v>
+        <v>45870</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17884,7 +17941,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
-        <v>46204</v>
+        <v>45901</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17902,7 +17959,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
-        <v>46235</v>
+        <v>45931</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17920,7 +17977,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39">
-        <v>46266</v>
+        <v>45962</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17938,7 +17995,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
-        <v>46296</v>
+        <v>45992</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17956,7 +18013,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
-        <v>46327</v>
+        <v>46023</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17974,7 +18031,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39">
-        <v>46357</v>
+        <v>46054</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17992,7 +18049,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
-        <v>46388</v>
+        <v>46082</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -18010,7 +18067,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
-        <v>46419</v>
+        <v>46113</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18028,7 +18085,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
-        <v>46447</v>
+        <v>46143</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18046,7 +18103,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
-        <v>46478</v>
+        <v>46174</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18064,7 +18121,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39">
-        <v>46508</v>
+        <v>46204</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18082,7 +18139,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39">
-        <v>46539</v>
+        <v>46235</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18100,7 +18157,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39">
-        <v>46569</v>
+        <v>46266</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18118,7 +18175,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
-        <v>46600</v>
+        <v>46296</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18136,7 +18193,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
-        <v>46631</v>
+        <v>46327</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18154,7 +18211,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
-        <v>46661</v>
+        <v>46357</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18172,7 +18229,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39">
-        <v>46692</v>
+        <v>46388</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18190,7 +18247,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39">
-        <v>46722</v>
+        <v>46419</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18208,7 +18265,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
-        <v>46753</v>
+        <v>46447</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18226,7 +18283,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39">
-        <v>46784</v>
+        <v>46478</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18244,7 +18301,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
-        <v>46813</v>
+        <v>46508</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18262,7 +18319,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39">
-        <v>46844</v>
+        <v>46539</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18280,7 +18337,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39">
-        <v>46874</v>
+        <v>46569</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18298,7 +18355,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39">
-        <v>46905</v>
+        <v>46600</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18316,7 +18373,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
-        <v>46935</v>
+        <v>46631</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18334,7 +18391,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39">
-        <v>46966</v>
+        <v>46661</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18352,7 +18409,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39">
-        <v>46997</v>
+        <v>46692</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18370,7 +18427,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39">
-        <v>47027</v>
+        <v>46722</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18388,7 +18445,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39">
-        <v>47058</v>
+        <v>46753</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18406,7 +18463,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39">
-        <v>47088</v>
+        <v>46784</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18424,7 +18481,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39">
-        <v>47119</v>
+        <v>46813</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18442,7 +18499,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39">
-        <v>47150</v>
+        <v>46844</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18460,7 +18517,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39">
-        <v>47178</v>
+        <v>46874</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18478,7 +18535,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39">
-        <v>47209</v>
+        <v>46905</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18496,7 +18553,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="39">
-        <v>47239</v>
+        <v>46935</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18514,7 +18571,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39">
-        <v>47270</v>
+        <v>46966</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18532,7 +18589,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39">
-        <v>47300</v>
+        <v>46997</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18550,7 +18607,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="39">
-        <v>47331</v>
+        <v>47027</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18568,7 +18625,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="39">
-        <v>47362</v>
+        <v>47058</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18586,7 +18643,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="39">
-        <v>47392</v>
+        <v>47088</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18604,7 +18661,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="39">
-        <v>47423</v>
+        <v>47119</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18622,7 +18679,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="39">
-        <v>47453</v>
+        <v>47150</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18639,7 +18696,9 @@
       <c r="K665" s="20"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="39"/>
+      <c r="A666" s="39">
+        <v>47178</v>
+      </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
       <c r="D666" s="38"/>
@@ -18655,7 +18714,9 @@
       <c r="K666" s="20"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="39"/>
+      <c r="A667" s="39">
+        <v>47209</v>
+      </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="38"/>
@@ -18671,7 +18732,9 @@
       <c r="K667" s="20"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="39"/>
+      <c r="A668" s="39">
+        <v>47239</v>
+      </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
       <c r="D668" s="38"/>
@@ -18687,7 +18750,9 @@
       <c r="K668" s="20"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="39"/>
+      <c r="A669" s="39">
+        <v>47270</v>
+      </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
       <c r="D669" s="38"/>
@@ -18703,7 +18768,9 @@
       <c r="K669" s="20"/>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="39"/>
+      <c r="A670" s="39">
+        <v>47300</v>
+      </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
       <c r="D670" s="38"/>
@@ -18719,7 +18786,9 @@
       <c r="K670" s="20"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" s="39"/>
+      <c r="A671" s="39">
+        <v>47331</v>
+      </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
       <c r="D671" s="38"/>
@@ -18735,7 +18804,9 @@
       <c r="K671" s="20"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="39"/>
+      <c r="A672" s="39">
+        <v>47362</v>
+      </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
       <c r="D672" s="38"/>
@@ -18751,7 +18822,9 @@
       <c r="K672" s="20"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="39"/>
+      <c r="A673" s="39">
+        <v>47392</v>
+      </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
       <c r="D673" s="38"/>
@@ -18767,7 +18840,9 @@
       <c r="K673" s="20"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="39"/>
+      <c r="A674" s="39">
+        <v>47423</v>
+      </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
       <c r="D674" s="38"/>
@@ -18783,20 +18858,182 @@
       <c r="K674" s="20"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40"/>
-      <c r="B675" s="15"/>
-      <c r="C675" s="41"/>
-      <c r="D675" s="42"/>
+      <c r="A675" s="39">
+        <v>47453</v>
+      </c>
+      <c r="B675" s="20"/>
+      <c r="C675" s="13"/>
+      <c r="D675" s="38"/>
       <c r="E675" s="9"/>
-      <c r="F675" s="15"/>
+      <c r="F675" s="20"/>
       <c r="G675" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H675" s="42"/>
+      <c r="H675" s="38"/>
       <c r="I675" s="9"/>
-      <c r="J675" s="12"/>
-      <c r="K675" s="15"/>
+      <c r="J675" s="11"/>
+      <c r="K675" s="20"/>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A676" s="39"/>
+      <c r="B676" s="20"/>
+      <c r="C676" s="13"/>
+      <c r="D676" s="38"/>
+      <c r="E676" s="9"/>
+      <c r="F676" s="20"/>
+      <c r="G676" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H676" s="38"/>
+      <c r="I676" s="9"/>
+      <c r="J676" s="11"/>
+      <c r="K676" s="20"/>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A677" s="39"/>
+      <c r="B677" s="20"/>
+      <c r="C677" s="13"/>
+      <c r="D677" s="38"/>
+      <c r="E677" s="9"/>
+      <c r="F677" s="20"/>
+      <c r="G677" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H677" s="38"/>
+      <c r="I677" s="9"/>
+      <c r="J677" s="11"/>
+      <c r="K677" s="20"/>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A678" s="39"/>
+      <c r="B678" s="20"/>
+      <c r="C678" s="13"/>
+      <c r="D678" s="38"/>
+      <c r="E678" s="9"/>
+      <c r="F678" s="20"/>
+      <c r="G678" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H678" s="38"/>
+      <c r="I678" s="9"/>
+      <c r="J678" s="11"/>
+      <c r="K678" s="20"/>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A679" s="39"/>
+      <c r="B679" s="20"/>
+      <c r="C679" s="13"/>
+      <c r="D679" s="38"/>
+      <c r="E679" s="9"/>
+      <c r="F679" s="20"/>
+      <c r="G679" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H679" s="38"/>
+      <c r="I679" s="9"/>
+      <c r="J679" s="11"/>
+      <c r="K679" s="20"/>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" s="39"/>
+      <c r="B680" s="20"/>
+      <c r="C680" s="13"/>
+      <c r="D680" s="38"/>
+      <c r="E680" s="9"/>
+      <c r="F680" s="20"/>
+      <c r="G680" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H680" s="38"/>
+      <c r="I680" s="9"/>
+      <c r="J680" s="11"/>
+      <c r="K680" s="20"/>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A681" s="39"/>
+      <c r="B681" s="20"/>
+      <c r="C681" s="13"/>
+      <c r="D681" s="38"/>
+      <c r="E681" s="9"/>
+      <c r="F681" s="20"/>
+      <c r="G681" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H681" s="38"/>
+      <c r="I681" s="9"/>
+      <c r="J681" s="11"/>
+      <c r="K681" s="20"/>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A682" s="39"/>
+      <c r="B682" s="20"/>
+      <c r="C682" s="13"/>
+      <c r="D682" s="38"/>
+      <c r="E682" s="9"/>
+      <c r="F682" s="20"/>
+      <c r="G682" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H682" s="38"/>
+      <c r="I682" s="9"/>
+      <c r="J682" s="11"/>
+      <c r="K682" s="20"/>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A683" s="39"/>
+      <c r="B683" s="20"/>
+      <c r="C683" s="13"/>
+      <c r="D683" s="38"/>
+      <c r="E683" s="9"/>
+      <c r="F683" s="20"/>
+      <c r="G683" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H683" s="38"/>
+      <c r="I683" s="9"/>
+      <c r="J683" s="11"/>
+      <c r="K683" s="20"/>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A684" s="39"/>
+      <c r="B684" s="20"/>
+      <c r="C684" s="13"/>
+      <c r="D684" s="38"/>
+      <c r="E684" s="9"/>
+      <c r="F684" s="20"/>
+      <c r="G684" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H684" s="38"/>
+      <c r="I684" s="9"/>
+      <c r="J684" s="11"/>
+      <c r="K684" s="20"/>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" s="40"/>
+      <c r="B685" s="15"/>
+      <c r="C685" s="41"/>
+      <c r="D685" s="42"/>
+      <c r="E685" s="9"/>
+      <c r="F685" s="15"/>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H685" s="42"/>
+      <c r="I685" s="9"/>
+      <c r="J685" s="12"/>
+      <c r="K685" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -18905,15 +19142,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.9000000000000015E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">

--- a/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="421">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2059,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2123,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2183,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2249,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2534,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2652,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2904,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2962,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3028,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3084,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3159,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3202,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3268,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3324,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,8 +3420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K685" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K685"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K686" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K686"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3768,12 +3768,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K685"/>
+  <dimension ref="A2:K686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A570" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A597" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F580" sqref="F580"/>
+      <selection pane="bottomLeft" activeCell="J605" sqref="J605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,7 +3938,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.1930000000000405</v>
+        <v>6.4430000000000405</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3948,7 +3948,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.074999999999989</v>
+        <v>46.324999999999989</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17563,13 +17563,15 @@
       <c r="B603" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C603" s="13"/>
+      <c r="C603" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D603" s="38"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G603" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H603" s="38">
         <v>1</v>
@@ -17598,10 +17600,10 @@
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B605" s="20"/>
+      <c r="A605" s="39"/>
+      <c r="B605" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C605" s="13"/>
       <c r="D605" s="38"/>
       <c r="E605" s="9"/>
@@ -17610,14 +17612,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H605" s="38"/>
+      <c r="H605" s="38">
+        <v>1</v>
+      </c>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="48">
+        <v>45321</v>
+      </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17635,7 +17641,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17653,7 +17659,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17671,7 +17677,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17689,7 +17695,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17707,7 +17713,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17725,7 +17731,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17743,7 +17749,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17761,7 +17767,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17779,7 +17785,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17797,7 +17803,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17815,7 +17821,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17833,7 +17839,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17851,7 +17857,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17869,7 +17875,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17887,7 +17893,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17905,7 +17911,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17923,7 +17929,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17941,7 +17947,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17959,7 +17965,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17977,7 +17983,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17995,7 +18001,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -18013,7 +18019,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -18031,7 +18037,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -18049,7 +18055,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -18067,7 +18073,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18085,7 +18091,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18103,7 +18109,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18121,7 +18127,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18139,7 +18145,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18157,7 +18163,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18175,7 +18181,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18193,7 +18199,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18211,7 +18217,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18229,7 +18235,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18247,7 +18253,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18265,7 +18271,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18283,7 +18289,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18301,7 +18307,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18319,7 +18325,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18337,7 +18343,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18355,7 +18361,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18373,7 +18379,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18391,7 +18397,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18409,7 +18415,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18427,7 +18433,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18445,7 +18451,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18463,7 +18469,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18481,7 +18487,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18499,7 +18505,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18517,7 +18523,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18535,7 +18541,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18553,7 +18559,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="39">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18571,7 +18577,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18589,7 +18595,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18607,7 +18613,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="39">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18625,7 +18631,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="39">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18643,7 +18649,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="39">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18661,7 +18667,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="39">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18679,7 +18685,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="39">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18697,7 +18703,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="39">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18715,7 +18721,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="39">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18733,7 +18739,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="39">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18751,7 +18757,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="39">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18769,7 +18775,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="39">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18787,7 +18793,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="39">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18805,7 +18811,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="39">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18823,7 +18829,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="39">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18841,7 +18847,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="39">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18859,7 +18865,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="39">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18876,7 +18882,9 @@
       <c r="K675" s="20"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" s="39"/>
+      <c r="A676" s="39">
+        <v>47453</v>
+      </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
       <c r="D676" s="38"/>
@@ -19020,20 +19028,36 @@
       <c r="K684" s="20"/>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="40"/>
-      <c r="B685" s="15"/>
-      <c r="C685" s="41"/>
-      <c r="D685" s="42"/>
+      <c r="A685" s="39"/>
+      <c r="B685" s="20"/>
+      <c r="C685" s="13"/>
+      <c r="D685" s="38"/>
       <c r="E685" s="9"/>
-      <c r="F685" s="15"/>
+      <c r="F685" s="20"/>
       <c r="G685" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H685" s="42"/>
+      <c r="H685" s="38"/>
       <c r="I685" s="9"/>
-      <c r="J685" s="12"/>
-      <c r="K685" s="15"/>
+      <c r="J685" s="11"/>
+      <c r="K685" s="20"/>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A686" s="40"/>
+      <c r="B686" s="15"/>
+      <c r="C686" s="41"/>
+      <c r="D686" s="42"/>
+      <c r="E686" s="9"/>
+      <c r="F686" s="15"/>
+      <c r="G686" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H686" s="42"/>
+      <c r="I686" s="9"/>
+      <c r="J686" s="12"/>
+      <c r="K686" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/BUDGET/TANEDO, MARIA EVELYN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="421">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2059,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2123,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2183,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2249,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2534,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2652,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2904,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2962,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3028,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3084,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3159,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3202,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3268,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3324,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3773,7 +3773,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A597" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="J605" sqref="J605"/>
+      <selection pane="bottomLeft" activeCell="M602" sqref="M602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3948,7 +3948,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.324999999999989</v>
+        <v>45.324999999999989</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17625,7 +17625,9 @@
       <c r="A606" s="39">
         <v>45323</v>
       </c>
-      <c r="B606" s="20"/>
+      <c r="B606" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C606" s="13"/>
       <c r="D606" s="38"/>
       <c r="E606" s="9"/>
@@ -17634,10 +17636,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H606" s="38"/>
+      <c r="H606" s="38">
+        <v>1</v>
+      </c>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
+      <c r="K606" s="48">
+        <v>45327</v>
+      </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39">
